--- a/실무_엑셀_예제_파일/Chapter04/04-011.xlsx
+++ b/실무_엑셀_예제_파일/Chapter04/04-011.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google 드라이브\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA57F20-27CF-4185-A91D-94474348C80A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AB4C9C-AB2D-43C1-9C74-AAA1DB8613B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4092" yWindow="1140" windowWidth="16452" windowHeight="10524" xr2:uid="{BDF3AE75-CB53-43DE-B8CF-3BF9E900D870}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{BDF3AE75-CB53-43DE-B8CF-3BF9E900D870}"/>
   </bookViews>
   <sheets>
     <sheet name="견적서" sheetId="2" r:id="rId1"/>
@@ -20,22 +20,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">체육대회명단!$A$4:$B$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">견적서!$A$1:$AD$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">신규매장!$B$2:$G$11</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1648,6 +1639,150 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="14"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="14"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="14"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1663,9 +1798,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
@@ -1702,149 +1834,8 @@
     <xf numFmtId="182" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="14"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="14"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="14"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3185,24 +3176,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2F38C6-CC9B-4203-A9DD-8FF04BA03539}">
   <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I38" sqref="A1:AD38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.19921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.1640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="30" width="3.296875" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="4.19921875" style="1"/>
+    <col min="1" max="30" width="3.33203125" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="4.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="18" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="17"/>
-      <c r="C1" s="72">
+      <c r="C1" s="120">
         <v>101</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
@@ -3229,55 +3222,55 @@
       <c r="AC1" s="16"/>
       <c r="AD1" s="15"/>
     </row>
-    <row r="2" spans="1:30" ht="1.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:30" ht="2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
       <c r="AD2" s="14"/>
     </row>
-    <row r="3" spans="1:30" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="126" t="s">
+    <row r="3" spans="1:30" ht="35.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="127"/>
-      <c r="S3" s="127"/>
-      <c r="T3" s="127"/>
-      <c r="U3" s="127"/>
-      <c r="V3" s="127"/>
-      <c r="W3" s="127"/>
-      <c r="X3" s="127"/>
-      <c r="Y3" s="127"/>
-      <c r="Z3" s="127"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="127"/>
-      <c r="AC3" s="127"/>
-      <c r="AD3" s="128"/>
-    </row>
-    <row r="4" spans="1:30" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="93"/>
+    </row>
+    <row r="4" spans="1:30" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="4"/>
       <c r="AD4" s="14"/>
     </row>
-    <row r="5" spans="1:30" s="5" customFormat="1" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" s="5" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="10"/>
-      <c r="C5" s="133">
+      <c r="C5" s="82">
         <v>2021</v>
       </c>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
       <c r="F5" s="5" t="s">
         <v>44</v>
       </c>
@@ -3293,135 +3286,135 @@
       <c r="J5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="129" t="s">
+      <c r="N5" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="77" t="s">
+      <c r="O5" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="132" t="s">
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="132"/>
-      <c r="T5" s="132"/>
-      <c r="U5" s="132"/>
-      <c r="V5" s="132"/>
-      <c r="W5" s="132"/>
-      <c r="X5" s="132"/>
-      <c r="Y5" s="132"/>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="132"/>
-      <c r="AB5" s="132"/>
-      <c r="AC5" s="132"/>
-      <c r="AD5" s="132"/>
-    </row>
-    <row r="6" spans="1:30" s="5" customFormat="1" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="78"/>
+    </row>
+    <row r="6" spans="1:30" s="5" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="13"/>
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="77" t="s">
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="132" t="s">
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="S6" s="132"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="132"/>
-      <c r="V6" s="132"/>
-      <c r="W6" s="77" t="s">
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="132" t="s">
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="AA6" s="132"/>
-      <c r="AB6" s="132"/>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="132"/>
-    </row>
-    <row r="7" spans="1:30" s="11" customFormat="1" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+    </row>
+    <row r="7" spans="1:30" s="11" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="12"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="134" t="s">
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="137" t="s">
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
-      <c r="R7" s="131" t="s">
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="131"/>
-      <c r="T7" s="131"/>
-      <c r="U7" s="131"/>
-      <c r="V7" s="131"/>
-      <c r="W7" s="131"/>
-      <c r="X7" s="131"/>
-      <c r="Y7" s="131"/>
-      <c r="Z7" s="131"/>
-      <c r="AA7" s="131"/>
-      <c r="AB7" s="131"/>
-      <c r="AC7" s="131"/>
-      <c r="AD7" s="131"/>
-    </row>
-    <row r="8" spans="1:30" s="5" customFormat="1" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S7" s="96"/>
+      <c r="T7" s="96"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="96"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="96"/>
+      <c r="AC7" s="96"/>
+      <c r="AD7" s="96"/>
+    </row>
+    <row r="8" spans="1:30" s="5" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="77" t="s">
+      <c r="N8" s="95"/>
+      <c r="O8" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="132" t="s">
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="132"/>
-      <c r="T8" s="132"/>
-      <c r="U8" s="132"/>
-      <c r="V8" s="132"/>
-      <c r="W8" s="77" t="s">
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="X8" s="77"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="132" t="s">
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
+      <c r="Z8" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="132"/>
-      <c r="AB8" s="132"/>
-      <c r="AC8" s="132"/>
-      <c r="AD8" s="132"/>
-    </row>
-    <row r="9" spans="1:30" s="5" customFormat="1" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="78"/>
+      <c r="AC8" s="78"/>
+      <c r="AD8" s="78"/>
+    </row>
+    <row r="9" spans="1:30" s="5" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -3437,1078 +3430,1078 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="77" t="s">
+      <c r="N9" s="95"/>
+      <c r="O9" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="132" t="s">
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="132"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="132"/>
-      <c r="V9" s="132"/>
-      <c r="W9" s="77" t="s">
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="132"/>
-      <c r="AA9" s="132"/>
-      <c r="AB9" s="132"/>
-      <c r="AC9" s="132"/>
-      <c r="AD9" s="132"/>
-    </row>
-    <row r="10" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="82" t="s">
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="78"/>
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="78"/>
+    </row>
+    <row r="10" spans="1:30" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="88">
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="135">
         <f>V10</f>
         <v>15000000</v>
       </c>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="84">
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="135"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="131">
         <f>D26</f>
         <v>15000000</v>
       </c>
-      <c r="W10" s="84"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="86"/>
-    </row>
-    <row r="11" spans="1:30" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="80" t="s">
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="131"/>
+      <c r="Z10" s="131"/>
+      <c r="AA10" s="131"/>
+      <c r="AB10" s="131"/>
+      <c r="AC10" s="131"/>
+      <c r="AD10" s="133"/>
+    </row>
+    <row r="11" spans="1:30" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="89"/>
-      <c r="S11" s="89"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="85"/>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="87"/>
-    </row>
-    <row r="12" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="132" t="s">
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="136"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="136"/>
+      <c r="S11" s="136"/>
+      <c r="T11" s="136"/>
+      <c r="U11" s="136"/>
+      <c r="V11" s="132"/>
+      <c r="W11" s="132"/>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="132"/>
+      <c r="Z11" s="132"/>
+      <c r="AA11" s="132"/>
+      <c r="AB11" s="132"/>
+      <c r="AC11" s="132"/>
+      <c r="AD11" s="134"/>
+    </row>
+    <row r="12" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132" t="s">
+      <c r="B12" s="78"/>
+      <c r="C12" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132" t="s">
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="132" t="s">
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="132"/>
-      <c r="R12" s="132"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="132" t="s">
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="U12" s="132"/>
-      <c r="V12" s="132"/>
-      <c r="W12" s="132"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="132" t="s">
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="Z12" s="132"/>
-      <c r="AA12" s="132"/>
-      <c r="AB12" s="132"/>
-      <c r="AC12" s="132"/>
-      <c r="AD12" s="132"/>
-    </row>
-    <row r="13" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="96">
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+    </row>
+    <row r="13" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="79">
         <f t="shared" ref="A13:A24" si="0">IF(C13&lt;&gt;"",ROW()-12,"")</f>
         <v>1</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="96" t="s">
+      <c r="B13" s="81"/>
+      <c r="C13" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="96" t="s">
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="101"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="123">
+      <c r="N13" s="80"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="75">
         <v>10</v>
       </c>
-      <c r="Q13" s="124"/>
-      <c r="R13" s="124"/>
-      <c r="S13" s="125"/>
-      <c r="T13" s="102">
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="72">
         <v>1500000</v>
       </c>
-      <c r="U13" s="103"/>
-      <c r="V13" s="103"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="98">
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="87">
         <f>IFERROR(T13*P13,0)</f>
         <v>15000000</v>
       </c>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="99"/>
-      <c r="AB13" s="99"/>
-      <c r="AC13" s="99"/>
-      <c r="AD13" s="100"/>
-    </row>
-    <row r="14" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="96" t="str">
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="88"/>
+      <c r="AD13" s="89"/>
+    </row>
+    <row r="14" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="79" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="124"/>
-      <c r="R14" s="124"/>
-      <c r="S14" s="125"/>
-      <c r="T14" s="102"/>
-      <c r="U14" s="103"/>
-      <c r="V14" s="103"/>
-      <c r="W14" s="103"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="98">
+      <c r="B14" s="81"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="87">
         <f t="shared" ref="Y14:Y24" si="1">IFERROR(T14*P14,0)</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="99"/>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="100"/>
-    </row>
-    <row r="15" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="96" t="str">
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="88"/>
+      <c r="AD14" s="89"/>
+    </row>
+    <row r="15" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="79" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="124"/>
-      <c r="R15" s="124"/>
-      <c r="S15" s="125"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="103"/>
-      <c r="W15" s="103"/>
-      <c r="X15" s="104"/>
-      <c r="Y15" s="98">
+      <c r="B15" s="81"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="99"/>
-      <c r="AA15" s="99"/>
-      <c r="AB15" s="99"/>
-      <c r="AC15" s="99"/>
-      <c r="AD15" s="100"/>
-    </row>
-    <row r="16" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="96" t="str">
+      <c r="Z15" s="88"/>
+      <c r="AA15" s="88"/>
+      <c r="AB15" s="88"/>
+      <c r="AC15" s="88"/>
+      <c r="AD15" s="89"/>
+    </row>
+    <row r="16" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="79" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="124"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="125"/>
-      <c r="T16" s="102"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
-      <c r="W16" s="103"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="98">
+      <c r="B16" s="81"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="99"/>
-      <c r="AB16" s="99"/>
-      <c r="AC16" s="99"/>
-      <c r="AD16" s="100"/>
-    </row>
-    <row r="17" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="96" t="str">
+      <c r="Z16" s="88"/>
+      <c r="AA16" s="88"/>
+      <c r="AB16" s="88"/>
+      <c r="AC16" s="88"/>
+      <c r="AD16" s="89"/>
+    </row>
+    <row r="17" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="79" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="125"/>
-      <c r="T17" s="102"/>
-      <c r="U17" s="103"/>
-      <c r="V17" s="103"/>
-      <c r="W17" s="103"/>
-      <c r="X17" s="104"/>
-      <c r="Y17" s="98">
+      <c r="B17" s="81"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="99"/>
-      <c r="AA17" s="99"/>
-      <c r="AB17" s="99"/>
-      <c r="AC17" s="99"/>
-      <c r="AD17" s="100"/>
-    </row>
-    <row r="18" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="96" t="str">
+      <c r="Z17" s="88"/>
+      <c r="AA17" s="88"/>
+      <c r="AB17" s="88"/>
+      <c r="AC17" s="88"/>
+      <c r="AD17" s="89"/>
+    </row>
+    <row r="18" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="79" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="124"/>
-      <c r="R18" s="124"/>
-      <c r="S18" s="125"/>
-      <c r="T18" s="102"/>
-      <c r="U18" s="103"/>
-      <c r="V18" s="103"/>
-      <c r="W18" s="103"/>
-      <c r="X18" s="104"/>
-      <c r="Y18" s="98">
+      <c r="B18" s="81"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="99"/>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="99"/>
-      <c r="AC18" s="99"/>
-      <c r="AD18" s="100"/>
-    </row>
-    <row r="19" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="96" t="str">
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="88"/>
+      <c r="AB18" s="88"/>
+      <c r="AC18" s="88"/>
+      <c r="AD18" s="89"/>
+    </row>
+    <row r="19" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="79" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="124"/>
-      <c r="R19" s="124"/>
-      <c r="S19" s="125"/>
-      <c r="T19" s="102"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="103"/>
-      <c r="W19" s="103"/>
-      <c r="X19" s="104"/>
-      <c r="Y19" s="98">
+      <c r="B19" s="81"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="74"/>
+      <c r="Y19" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="99"/>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="99"/>
-      <c r="AC19" s="99"/>
-      <c r="AD19" s="100"/>
-    </row>
-    <row r="20" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="96" t="str">
+      <c r="Z19" s="88"/>
+      <c r="AA19" s="88"/>
+      <c r="AB19" s="88"/>
+      <c r="AC19" s="88"/>
+      <c r="AD19" s="89"/>
+    </row>
+    <row r="20" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="79" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="124"/>
-      <c r="R20" s="124"/>
-      <c r="S20" s="125"/>
-      <c r="T20" s="102"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="103"/>
-      <c r="X20" s="104"/>
-      <c r="Y20" s="98">
+      <c r="B20" s="81"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="100"/>
-    </row>
-    <row r="21" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="96" t="str">
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="88"/>
+      <c r="AB20" s="88"/>
+      <c r="AC20" s="88"/>
+      <c r="AD20" s="89"/>
+    </row>
+    <row r="21" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="79" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="124"/>
-      <c r="R21" s="124"/>
-      <c r="S21" s="125"/>
-      <c r="T21" s="102"/>
-      <c r="U21" s="103"/>
-      <c r="V21" s="103"/>
-      <c r="W21" s="103"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="98">
+      <c r="B21" s="81"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="99"/>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="99"/>
-      <c r="AC21" s="99"/>
-      <c r="AD21" s="100"/>
-    </row>
-    <row r="22" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="96" t="str">
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="88"/>
+      <c r="AB21" s="88"/>
+      <c r="AC21" s="88"/>
+      <c r="AD21" s="89"/>
+    </row>
+    <row r="22" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="79" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="124"/>
-      <c r="R22" s="124"/>
-      <c r="S22" s="125"/>
-      <c r="T22" s="102"/>
-      <c r="U22" s="103"/>
-      <c r="V22" s="103"/>
-      <c r="W22" s="103"/>
-      <c r="X22" s="104"/>
-      <c r="Y22" s="98">
+      <c r="B22" s="81"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="99"/>
-      <c r="AA22" s="99"/>
-      <c r="AB22" s="99"/>
-      <c r="AC22" s="99"/>
-      <c r="AD22" s="100"/>
-    </row>
-    <row r="23" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="96" t="str">
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="88"/>
+      <c r="AB22" s="88"/>
+      <c r="AC22" s="88"/>
+      <c r="AD22" s="89"/>
+    </row>
+    <row r="23" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="79" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="124"/>
-      <c r="R23" s="124"/>
-      <c r="S23" s="125"/>
-      <c r="T23" s="102"/>
-      <c r="U23" s="103"/>
-      <c r="V23" s="103"/>
-      <c r="W23" s="103"/>
-      <c r="X23" s="104"/>
-      <c r="Y23" s="98">
+      <c r="B23" s="81"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="99"/>
-      <c r="AC23" s="99"/>
-      <c r="AD23" s="100"/>
-    </row>
-    <row r="24" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="96" t="str">
+      <c r="Z23" s="88"/>
+      <c r="AA23" s="88"/>
+      <c r="AB23" s="88"/>
+      <c r="AC23" s="88"/>
+      <c r="AD23" s="89"/>
+    </row>
+    <row r="24" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="79" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B24" s="97"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="124"/>
-      <c r="R24" s="124"/>
-      <c r="S24" s="125"/>
-      <c r="T24" s="102"/>
-      <c r="U24" s="103"/>
-      <c r="V24" s="103"/>
-      <c r="W24" s="103"/>
-      <c r="X24" s="104"/>
-      <c r="Y24" s="98">
+      <c r="B24" s="81"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z24" s="99"/>
-      <c r="AA24" s="99"/>
-      <c r="AB24" s="99"/>
-      <c r="AC24" s="99"/>
-      <c r="AD24" s="100"/>
-    </row>
-    <row r="25" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="108"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="108"/>
-      <c r="R25" s="108"/>
-      <c r="S25" s="108"/>
-      <c r="T25" s="108"/>
-      <c r="U25" s="108"/>
-      <c r="V25" s="108"/>
-      <c r="W25" s="108"/>
-      <c r="X25" s="108"/>
-      <c r="Y25" s="95">
+      <c r="Z24" s="88"/>
+      <c r="AA24" s="88"/>
+      <c r="AB24" s="88"/>
+      <c r="AC24" s="88"/>
+      <c r="AD24" s="89"/>
+    </row>
+    <row r="25" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="105"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="105"/>
+      <c r="S25" s="105"/>
+      <c r="T25" s="105"/>
+      <c r="U25" s="105"/>
+      <c r="V25" s="105"/>
+      <c r="W25" s="105"/>
+      <c r="X25" s="105"/>
+      <c r="Y25" s="137">
         <f>SUM(Y13:AD24)</f>
         <v>15000000</v>
       </c>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95"/>
-    </row>
-    <row r="26" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="109" t="s">
+      <c r="Z25" s="137"/>
+      <c r="AA25" s="137"/>
+      <c r="AB25" s="137"/>
+      <c r="AC25" s="137"/>
+      <c r="AD25" s="137"/>
+    </row>
+    <row r="26" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="119">
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="116">
         <f>Y25</f>
         <v>15000000</v>
       </c>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="115" t="s">
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="116"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="N26" s="116"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="93">
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="103">
         <f>D26*P27</f>
         <v>4500000</v>
       </c>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="93"/>
-      <c r="S26" s="93"/>
-      <c r="T26" s="93"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="115" t="s">
+      <c r="Q26" s="103"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="103"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="W26" s="116"/>
-      <c r="X26" s="116"/>
-      <c r="Y26" s="93">
+      <c r="W26" s="113"/>
+      <c r="X26" s="113"/>
+      <c r="Y26" s="103">
         <f>D26*Y27</f>
         <v>10500000</v>
       </c>
-      <c r="Z26" s="93"/>
-      <c r="AA26" s="93"/>
-      <c r="AB26" s="93"/>
-      <c r="AC26" s="93"/>
-      <c r="AD26" s="94"/>
-    </row>
-    <row r="27" spans="1:30" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="111"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="122"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="118"/>
-      <c r="P27" s="113">
+      <c r="Z26" s="103"/>
+      <c r="AA26" s="103"/>
+      <c r="AB26" s="103"/>
+      <c r="AC26" s="103"/>
+      <c r="AD26" s="104"/>
+    </row>
+    <row r="27" spans="1:30" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="108"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="119"/>
+      <c r="M27" s="114"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="110">
         <v>0.3</v>
       </c>
-      <c r="Q27" s="113"/>
-      <c r="R27" s="113"/>
-      <c r="S27" s="113"/>
-      <c r="T27" s="113"/>
-      <c r="U27" s="114"/>
-      <c r="V27" s="117"/>
-      <c r="W27" s="118"/>
-      <c r="X27" s="118"/>
-      <c r="Y27" s="113">
+      <c r="Q27" s="110"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="110"/>
+      <c r="T27" s="110"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="114"/>
+      <c r="W27" s="115"/>
+      <c r="X27" s="115"/>
+      <c r="Y27" s="110">
         <f>1-P27</f>
         <v>0.7</v>
       </c>
-      <c r="Z27" s="113"/>
-      <c r="AA27" s="113"/>
-      <c r="AB27" s="113"/>
-      <c r="AC27" s="113"/>
-      <c r="AD27" s="114"/>
-    </row>
-    <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="105" t="s">
+      <c r="Z27" s="110"/>
+      <c r="AA27" s="110"/>
+      <c r="AB27" s="110"/>
+      <c r="AC27" s="110"/>
+      <c r="AD27" s="111"/>
+    </row>
+    <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="106"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="106"/>
-      <c r="W28" s="106"/>
-      <c r="X28" s="106"/>
-      <c r="Y28" s="106"/>
-      <c r="Z28" s="106"/>
-      <c r="AA28" s="106"/>
-      <c r="AB28" s="106"/>
-      <c r="AC28" s="106"/>
-      <c r="AD28" s="107"/>
-    </row>
-    <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="90" t="s">
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="101"/>
+      <c r="T28" s="101"/>
+      <c r="U28" s="101"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="101"/>
+      <c r="Y28" s="101"/>
+      <c r="Z28" s="101"/>
+      <c r="AA28" s="101"/>
+      <c r="AB28" s="101"/>
+      <c r="AC28" s="101"/>
+      <c r="AD28" s="102"/>
+    </row>
+    <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="91"/>
-      <c r="T29" s="91"/>
-      <c r="U29" s="91"/>
-      <c r="V29" s="91"/>
-      <c r="W29" s="91"/>
-      <c r="X29" s="91"/>
-      <c r="Y29" s="91"/>
-      <c r="Z29" s="91"/>
-      <c r="AA29" s="91"/>
-      <c r="AB29" s="91"/>
-      <c r="AC29" s="91"/>
-      <c r="AD29" s="92"/>
-    </row>
-    <row r="30" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="90" t="s">
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="99"/>
+    </row>
+    <row r="30" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="91"/>
-      <c r="S30" s="91"/>
-      <c r="T30" s="91"/>
-      <c r="U30" s="91"/>
-      <c r="V30" s="91"/>
-      <c r="W30" s="91"/>
-      <c r="X30" s="91"/>
-      <c r="Y30" s="91"/>
-      <c r="Z30" s="91"/>
-      <c r="AA30" s="91"/>
-      <c r="AB30" s="91"/>
-      <c r="AC30" s="91"/>
-      <c r="AD30" s="92"/>
-    </row>
-    <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="90" t="s">
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="99"/>
+    </row>
+    <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="91"/>
-      <c r="S31" s="91"/>
-      <c r="T31" s="91"/>
-      <c r="U31" s="91"/>
-      <c r="V31" s="91"/>
-      <c r="W31" s="91"/>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="91"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="91"/>
-      <c r="AC31" s="91"/>
-      <c r="AD31" s="92"/>
-    </row>
-    <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="90" t="s">
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="98"/>
+      <c r="P31" s="98"/>
+      <c r="Q31" s="98"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="98"/>
+      <c r="U31" s="98"/>
+      <c r="V31" s="98"/>
+      <c r="W31" s="98"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="98"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="99"/>
+    </row>
+    <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="91"/>
-      <c r="S32" s="91"/>
-      <c r="T32" s="91"/>
-      <c r="U32" s="91"/>
-      <c r="V32" s="91"/>
-      <c r="W32" s="91"/>
-      <c r="X32" s="91"/>
-      <c r="Y32" s="91"/>
-      <c r="Z32" s="91"/>
-      <c r="AA32" s="91"/>
-      <c r="AB32" s="91"/>
-      <c r="AC32" s="91"/>
-      <c r="AD32" s="92"/>
-    </row>
-    <row r="33" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="90" t="s">
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="98"/>
+      <c r="P32" s="98"/>
+      <c r="Q32" s="98"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="98"/>
+      <c r="T32" s="98"/>
+      <c r="U32" s="98"/>
+      <c r="V32" s="98"/>
+      <c r="W32" s="98"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="98"/>
+      <c r="Z32" s="98"/>
+      <c r="AA32" s="98"/>
+      <c r="AB32" s="98"/>
+      <c r="AC32" s="98"/>
+      <c r="AD32" s="99"/>
+    </row>
+    <row r="33" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="91"/>
-      <c r="S33" s="91"/>
-      <c r="T33" s="91"/>
-      <c r="U33" s="91"/>
-      <c r="V33" s="91"/>
-      <c r="W33" s="91"/>
-      <c r="X33" s="91"/>
-      <c r="Y33" s="91"/>
-      <c r="Z33" s="91"/>
-      <c r="AA33" s="91"/>
-      <c r="AB33" s="91"/>
-      <c r="AC33" s="91"/>
-      <c r="AD33" s="92"/>
-    </row>
-    <row r="34" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="77" t="s">
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="98"/>
+      <c r="P33" s="98"/>
+      <c r="Q33" s="98"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="98"/>
+      <c r="V33" s="98"/>
+      <c r="W33" s="98"/>
+      <c r="X33" s="98"/>
+      <c r="Y33" s="98"/>
+      <c r="Z33" s="98"/>
+      <c r="AA33" s="98"/>
+      <c r="AB33" s="98"/>
+      <c r="AC33" s="98"/>
+      <c r="AD33" s="99"/>
+    </row>
+    <row r="34" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77" t="s">
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77" t="s">
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77" t="s">
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="77" t="s">
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="86"/>
+      <c r="R34" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="S34" s="77"/>
-      <c r="T34" s="77"/>
-      <c r="U34" s="77" t="s">
+      <c r="S34" s="86"/>
+      <c r="T34" s="86"/>
+      <c r="U34" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="V34" s="77"/>
-      <c r="W34" s="77"/>
-      <c r="X34" s="77"/>
-      <c r="Y34" s="77"/>
-      <c r="Z34" s="77"/>
-      <c r="AA34" s="77"/>
-      <c r="AB34" s="77"/>
-      <c r="AC34" s="77"/>
-      <c r="AD34" s="77"/>
-    </row>
-    <row r="35" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="77" t="s">
+      <c r="V34" s="86"/>
+      <c r="W34" s="86"/>
+      <c r="X34" s="86"/>
+      <c r="Y34" s="86"/>
+      <c r="Z34" s="86"/>
+      <c r="AA34" s="86"/>
+      <c r="AB34" s="86"/>
+      <c r="AC34" s="86"/>
+      <c r="AD34" s="86"/>
+    </row>
+    <row r="35" spans="1:30" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77" t="s">
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77" t="s">
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77" t="s">
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="77"/>
-      <c r="Q35" s="77"/>
-      <c r="R35" s="77"/>
-      <c r="S35" s="77"/>
-      <c r="T35" s="77"/>
-      <c r="U35" s="77" t="s">
+      <c r="M35" s="86"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="86"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="86"/>
+      <c r="R35" s="86"/>
+      <c r="S35" s="86"/>
+      <c r="T35" s="86"/>
+      <c r="U35" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="V35" s="77"/>
-      <c r="W35" s="77"/>
-      <c r="X35" s="77" t="s">
+      <c r="V35" s="86"/>
+      <c r="W35" s="86"/>
+      <c r="X35" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="Y35" s="77"/>
-      <c r="Z35" s="77"/>
-      <c r="AA35" s="77"/>
-      <c r="AB35" s="77"/>
-      <c r="AC35" s="77"/>
-      <c r="AD35" s="77"/>
-    </row>
-    <row r="36" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y35" s="86"/>
+      <c r="Z35" s="86"/>
+      <c r="AA35" s="86"/>
+      <c r="AB35" s="86"/>
+      <c r="AC35" s="86"/>
+      <c r="AD35" s="86"/>
+    </row>
+    <row r="36" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="I36" s="73" t="s">
+      <c r="I36" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="J36" s="73"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="73"/>
-      <c r="R36" s="73"/>
-      <c r="S36" s="73"/>
-      <c r="T36" s="73"/>
-      <c r="U36" s="73"/>
-      <c r="V36" s="73"/>
-      <c r="W36" s="73"/>
-      <c r="X36" s="73"/>
-      <c r="Y36" s="73"/>
-      <c r="Z36" s="73"/>
-      <c r="AA36" s="73"/>
-      <c r="AB36" s="73"/>
-      <c r="AC36" s="73"/>
-      <c r="AD36" s="74"/>
-    </row>
-    <row r="37" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J36" s="121"/>
+      <c r="K36" s="121"/>
+      <c r="L36" s="121"/>
+      <c r="M36" s="121"/>
+      <c r="N36" s="121"/>
+      <c r="O36" s="121"/>
+      <c r="P36" s="121"/>
+      <c r="Q36" s="121"/>
+      <c r="R36" s="121"/>
+      <c r="S36" s="121"/>
+      <c r="T36" s="121"/>
+      <c r="U36" s="121"/>
+      <c r="V36" s="121"/>
+      <c r="W36" s="121"/>
+      <c r="X36" s="121"/>
+      <c r="Y36" s="121"/>
+      <c r="Z36" s="121"/>
+      <c r="AA36" s="121"/>
+      <c r="AB36" s="121"/>
+      <c r="AC36" s="121"/>
+      <c r="AD36" s="122"/>
+    </row>
+    <row r="37" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="4"/>
-      <c r="I37" s="75" t="s">
+      <c r="I37" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="75"/>
-      <c r="R37" s="75"/>
-      <c r="S37" s="75"/>
-      <c r="T37" s="75"/>
-      <c r="U37" s="75"/>
-      <c r="V37" s="75"/>
-      <c r="W37" s="75"/>
-      <c r="X37" s="75"/>
-      <c r="Y37" s="75"/>
-      <c r="Z37" s="75"/>
-      <c r="AA37" s="75"/>
-      <c r="AB37" s="75"/>
-      <c r="AC37" s="75"/>
-      <c r="AD37" s="76"/>
-    </row>
-    <row r="38" spans="1:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J37" s="123"/>
+      <c r="K37" s="123"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="123"/>
+      <c r="N37" s="123"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="123"/>
+      <c r="Q37" s="123"/>
+      <c r="R37" s="123"/>
+      <c r="S37" s="123"/>
+      <c r="T37" s="123"/>
+      <c r="U37" s="123"/>
+      <c r="V37" s="123"/>
+      <c r="W37" s="123"/>
+      <c r="X37" s="123"/>
+      <c r="Y37" s="123"/>
+      <c r="Z37" s="123"/>
+      <c r="AA37" s="123"/>
+      <c r="AB37" s="123"/>
+      <c r="AC37" s="123"/>
+      <c r="AD37" s="124"/>
+    </row>
+    <row r="38" spans="1:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4517,65 +4510,141 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="78"/>
-      <c r="Q38" s="78"/>
-      <c r="R38" s="78"/>
-      <c r="S38" s="78"/>
-      <c r="T38" s="78"/>
-      <c r="U38" s="78"/>
-      <c r="V38" s="78"/>
-      <c r="W38" s="78"/>
-      <c r="X38" s="78"/>
-      <c r="Y38" s="78"/>
-      <c r="Z38" s="78"/>
-      <c r="AA38" s="78"/>
-      <c r="AB38" s="78"/>
-      <c r="AC38" s="78"/>
-      <c r="AD38" s="79"/>
-    </row>
-    <row r="39" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I38" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="125"/>
+      <c r="K38" s="125"/>
+      <c r="L38" s="125"/>
+      <c r="M38" s="125"/>
+      <c r="N38" s="125"/>
+      <c r="O38" s="125"/>
+      <c r="P38" s="125"/>
+      <c r="Q38" s="125"/>
+      <c r="R38" s="125"/>
+      <c r="S38" s="125"/>
+      <c r="T38" s="125"/>
+      <c r="U38" s="125"/>
+      <c r="V38" s="125"/>
+      <c r="W38" s="125"/>
+      <c r="X38" s="125"/>
+      <c r="Y38" s="125"/>
+      <c r="Z38" s="125"/>
+      <c r="AA38" s="125"/>
+      <c r="AB38" s="125"/>
+      <c r="AC38" s="125"/>
+      <c r="AD38" s="126"/>
+    </row>
+    <row r="39" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="str">
         <f ca="1">"이 문서는" &amp; TEXT(TODAY(),"yyyy년 mm월 dd일") &amp; "에 제작되었습니다."</f>
-        <v>이 문서는2021년 03월 17일에 제작되었습니다.</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>이 문서는2025년 04월 18일에 제작되었습니다.</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" spans="1:30" ht="19.8" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" spans="1:30" ht="19.8" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="1:30" ht="19.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="1:30" ht="19.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="I36:AD36"/>
+    <mergeCell ref="I37:AD37"/>
+    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="L35:T35"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="I38:AD38"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="V10:AC11"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="H10:U11"/>
+    <mergeCell ref="A29:AD29"/>
+    <mergeCell ref="A30:AD30"/>
+    <mergeCell ref="A31:AD31"/>
+    <mergeCell ref="A32:AD32"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="Y26:AD26"/>
+    <mergeCell ref="Y25:AD25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="Y24:AD24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="Y21:AD21"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="X35:AD35"/>
+    <mergeCell ref="U34:AD34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="Y23:AD23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="A33:AD33"/>
+    <mergeCell ref="A28:AD28"/>
+    <mergeCell ref="P26:U26"/>
+    <mergeCell ref="A25:X25"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="P27:U27"/>
+    <mergeCell ref="Y27:AD27"/>
+    <mergeCell ref="M26:O27"/>
+    <mergeCell ref="V26:X27"/>
+    <mergeCell ref="D26:L27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="Y19:AD19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="Y18:AD18"/>
+    <mergeCell ref="Y22:AD22"/>
+    <mergeCell ref="C23:L23"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="Y20:AD20"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="Y16:AD16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="Y14:AD14"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="Y17:AD17"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="A3:AD3"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="N5:N9"/>
+    <mergeCell ref="R7:AD7"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
     <mergeCell ref="P12:S12"/>
     <mergeCell ref="Y12:AD12"/>
     <mergeCell ref="M12:O12"/>
@@ -4600,107 +4669,31 @@
     <mergeCell ref="Z9:AD9"/>
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
-    <mergeCell ref="A3:AD3"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="N5:N9"/>
-    <mergeCell ref="R7:AD7"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="Y16:AD16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="Y14:AD14"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="Y17:AD17"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="Y19:AD19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="Y18:AD18"/>
-    <mergeCell ref="Y22:AD22"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="Y20:AD20"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="C22:L22"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="Y21:AD21"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="X35:AD35"/>
-    <mergeCell ref="U34:AD34"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="Y23:AD23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="A33:AD33"/>
-    <mergeCell ref="A28:AD28"/>
-    <mergeCell ref="P26:U26"/>
-    <mergeCell ref="A25:X25"/>
-    <mergeCell ref="A26:C27"/>
-    <mergeCell ref="P27:U27"/>
-    <mergeCell ref="Y27:AD27"/>
-    <mergeCell ref="M26:O27"/>
-    <mergeCell ref="V26:X27"/>
-    <mergeCell ref="D26:L27"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="I36:AD36"/>
-    <mergeCell ref="I37:AD37"/>
-    <mergeCell ref="L34:Q34"/>
-    <mergeCell ref="L35:T35"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="I38:AD38"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="V10:AC11"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="H10:U11"/>
-    <mergeCell ref="A29:AD29"/>
-    <mergeCell ref="A30:AD30"/>
-    <mergeCell ref="A31:AD31"/>
-    <mergeCell ref="A32:AD32"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="Y26:AD26"/>
-    <mergeCell ref="Y25:AD25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="Y24:AD24"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="T17:X17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="등록되지 않은 번호" error="판매처입력 시트에 등록되지 않은 번호입니다." sqref="C1:E1" xr:uid="{5B938485-49AF-4DAC-96C3-A27F4E49FC22}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4712,16 +4705,18 @@
   </sheetPr>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O53" sqref="O53"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="53.796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="13.296875" style="19" customWidth="1"/>
-    <col min="16" max="16384" width="8.796875" style="19"/>
+    <col min="1" max="1" width="53.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="13.33203125" style="19" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="45" t="s">
         <v>113</v>
       </c>
@@ -4744,7 +4739,7 @@
       <c r="N1" s="41"/>
       <c r="O1" s="40"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="39" t="s">
         <v>110</v>
       </c>
@@ -4791,7 +4786,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="33" t="s">
         <v>102</v>
       </c>
@@ -4838,7 +4833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="33" t="s">
         <v>101</v>
       </c>
@@ -4885,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="33" t="s">
         <v>89</v>
       </c>
@@ -4932,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="33" t="s">
         <v>100</v>
       </c>
@@ -4979,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="33" t="s">
         <v>99</v>
       </c>
@@ -5026,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="33" t="s">
         <v>98</v>
       </c>
@@ -5073,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="33" t="s">
         <v>97</v>
       </c>
@@ -5120,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="33" t="s">
         <v>74</v>
       </c>
@@ -5167,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="33" t="s">
         <v>96</v>
       </c>
@@ -5214,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="33" t="s">
         <v>95</v>
       </c>
@@ -5261,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="33" t="s">
         <v>94</v>
       </c>
@@ -5308,7 +5303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="33" t="s">
         <v>93</v>
       </c>
@@ -5355,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="33" t="s">
         <v>92</v>
       </c>
@@ -5402,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="33" t="s">
         <v>91</v>
       </c>
@@ -5449,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="33" t="s">
         <v>90</v>
       </c>
@@ -5496,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="33" t="s">
         <v>89</v>
       </c>
@@ -5543,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="33" t="s">
         <v>88</v>
       </c>
@@ -5590,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="33" t="s">
         <v>87</v>
       </c>
@@ -5637,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="33" t="s">
         <v>86</v>
       </c>
@@ -5684,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="33" t="s">
         <v>85</v>
       </c>
@@ -5731,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="33" t="s">
         <v>84</v>
       </c>
@@ -5778,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="33" t="s">
         <v>83</v>
       </c>
@@ -5825,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="33" t="s">
         <v>82</v>
       </c>
@@ -5872,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="33" t="s">
         <v>81</v>
       </c>
@@ -5919,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="33" t="s">
         <v>80</v>
       </c>
@@ -5966,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="33" t="s">
         <v>79</v>
       </c>
@@ -6013,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" s="33" t="s">
         <v>78</v>
       </c>
@@ -6060,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" s="33" t="s">
         <v>77</v>
       </c>
@@ -6107,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" s="33" t="s">
         <v>76</v>
       </c>
@@ -6154,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" s="33" t="s">
         <v>75</v>
       </c>
@@ -6201,7 +6196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" s="33" t="s">
         <v>74</v>
       </c>
@@ -6248,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="33" t="s">
         <v>73</v>
       </c>
@@ -6295,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="33" t="s">
         <v>72</v>
       </c>
@@ -6342,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="33" t="s">
         <v>71</v>
       </c>
@@ -6389,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="33" t="s">
         <v>70</v>
       </c>
@@ -6436,7 +6431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="33" t="s">
         <v>69</v>
       </c>
@@ -6483,7 +6478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="33" t="s">
         <v>68</v>
       </c>
@@ -6530,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="33" t="s">
         <v>67</v>
       </c>
@@ -6577,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="33" t="s">
         <v>66</v>
       </c>
@@ -6624,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="33" t="s">
         <v>65</v>
       </c>
@@ -6671,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="33" t="s">
         <v>64</v>
       </c>
@@ -6718,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="33" t="s">
         <v>63</v>
       </c>
@@ -6765,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" s="33" t="s">
         <v>62</v>
       </c>
@@ -6812,7 +6807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" s="33" t="s">
         <v>61</v>
       </c>
@@ -6859,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="33" t="s">
         <v>60</v>
       </c>
@@ -6906,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="33" t="s">
         <v>59</v>
       </c>
@@ -6953,7 +6948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" s="33" t="s">
         <v>58</v>
       </c>
@@ -7000,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="33" t="s">
         <v>57</v>
       </c>
@@ -7047,7 +7042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" s="33" t="s">
         <v>56</v>
       </c>
@@ -7094,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="26" t="s">
         <v>55</v>
       </c>
@@ -7144,7 +7139,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="33" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -7160,15 +7155,15 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.796875" customWidth="1"/>
-    <col min="2" max="2" width="15.09765625" customWidth="1"/>
-    <col min="3" max="7" width="13.296875" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" customWidth="1"/>
+    <col min="3" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:7" ht="28.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="138" t="s">
         <v>130</v>
       </c>
@@ -7178,7 +7173,7 @@
       <c r="F2" s="138"/>
       <c r="G2" s="138"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="69" t="s">
         <v>129</v>
       </c>
@@ -7198,7 +7193,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="65" t="s">
         <v>123</v>
       </c>
@@ -7218,7 +7213,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="57" t="s">
         <v>122</v>
       </c>
@@ -7238,7 +7233,7 @@
         <v>24200000</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="57" t="s">
         <v>121</v>
       </c>
@@ -7263,7 +7258,7 @@
         <v>127368.42105263157</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="57" t="s">
         <v>120</v>
       </c>
@@ -7283,7 +7278,7 @@
         <v>62500</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="57" t="s">
         <v>119</v>
       </c>
@@ -7303,7 +7298,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="53" t="s">
         <v>115</v>
       </c>
@@ -7323,7 +7318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="49" t="s">
         <v>114</v>
       </c>
@@ -7348,8 +7343,8 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.78740157480314965" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7357,22 +7352,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED06FBA9-E5A8-4863-A934-D4A9B989C02E}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="12.59765625" customWidth="1"/>
+    <col min="1" max="2" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:2" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="9.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:2" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="139" t="s">
         <v>182</v>
       </c>
       <c r="B2" s="139"/>
     </row>
-    <row r="3" spans="1:2" ht="9.6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="9.65" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="70" t="s">
         <v>156</v>
       </c>
@@ -7380,7 +7375,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="71" t="s">
         <v>151</v>
       </c>
@@ -7388,7 +7383,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="71" t="s">
         <v>148</v>
       </c>
@@ -7396,7 +7391,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="71" t="s">
         <v>147</v>
       </c>
@@ -7404,7 +7399,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="71" t="s">
         <v>138</v>
       </c>
@@ -7412,7 +7407,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="71" t="s">
         <v>144</v>
       </c>
@@ -7420,7 +7415,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="71" t="s">
         <v>137</v>
       </c>
@@ -7428,7 +7423,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="71" t="s">
         <v>132</v>
       </c>
@@ -7436,7 +7431,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="71" t="s">
         <v>143</v>
       </c>
@@ -7444,7 +7439,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="71" t="s">
         <v>149</v>
       </c>
@@ -7452,7 +7447,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="71" t="s">
         <v>146</v>
       </c>
@@ -7460,7 +7455,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="71" t="s">
         <v>152</v>
       </c>
@@ -7468,7 +7463,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="71" t="s">
         <v>154</v>
       </c>
@@ -7476,7 +7471,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="71" t="s">
         <v>134</v>
       </c>
@@ -7484,7 +7479,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="71" t="s">
         <v>131</v>
       </c>
@@ -7492,7 +7487,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="71" t="s">
         <v>140</v>
       </c>
@@ -7500,7 +7495,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="71" t="s">
         <v>135</v>
       </c>
@@ -7508,7 +7503,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="71" t="s">
         <v>150</v>
       </c>
@@ -7516,7 +7511,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="71" t="s">
         <v>139</v>
       </c>
@@ -7524,7 +7519,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="71" t="s">
         <v>142</v>
       </c>
@@ -7532,7 +7527,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="71" t="s">
         <v>141</v>
       </c>
@@ -7540,7 +7535,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="71" t="s">
         <v>153</v>
       </c>
@@ -7548,7 +7543,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="71" t="s">
         <v>136</v>
       </c>
@@ -7556,7 +7551,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="71" t="s">
         <v>145</v>
       </c>
@@ -7564,7 +7559,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="71" t="s">
         <v>133</v>
       </c>
@@ -7572,7 +7567,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="71" t="s">
         <v>167</v>
       </c>
@@ -7580,7 +7575,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="71" t="s">
         <v>168</v>
       </c>
@@ -7588,7 +7583,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="71" t="s">
         <v>169</v>
       </c>
@@ -7596,7 +7591,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="71" t="s">
         <v>170</v>
       </c>
@@ -7604,7 +7599,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="71" t="s">
         <v>171</v>
       </c>
@@ -7612,7 +7607,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="71" t="s">
         <v>172</v>
       </c>
@@ -7620,7 +7615,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="71" t="s">
         <v>173</v>
       </c>
@@ -7628,7 +7623,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="71" t="s">
         <v>174</v>
       </c>
@@ -7636,7 +7631,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="71" t="s">
         <v>175</v>
       </c>
@@ -7644,7 +7639,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="71" t="s">
         <v>176</v>
       </c>
@@ -7652,7 +7647,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="71" t="s">
         <v>177</v>
       </c>
@@ -7660,7 +7655,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="71" t="s">
         <v>178</v>
       </c>
@@ -7668,7 +7663,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="71" t="s">
         <v>179</v>
       </c>
@@ -7676,7 +7671,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="71" t="s">
         <v>180</v>
       </c>
@@ -7684,7 +7679,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="71" t="s">
         <v>181</v>
       </c>
@@ -7698,7 +7693,8 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>